--- a/biology/Zoologie/Hypna/Hypna.xlsx
+++ b/biology/Zoologie/Hypna/Hypna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypna est un genre d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il ne comporte qu'une seule espèce Hypna clytemnestra dont plusieurs sous-espèces sont parfois considérées comme des espèces à part entière, et en particulier Hypna iphigenia.
 Hypna clytemnestra (Cramer, 1777).
 Hypna clytemnestra clytemnestra
 Hypna clytemnestra corymbaensis Talbot, 1928 ; présent au Brésil.
-Hypna clytemnestra forbesi Godman &amp; Salvin, [1884] ; présent au Brésil.
+Hypna clytemnestra forbesi Godman &amp; Salvin,  ; présent au Brésil.
 Hypna clytemnestra huebneri Butler, 1866 ; présent au Brésil.
 Hypna clytemnestra iphigenia ou Hypna iphigenia Herrich-Schäffer, 1892 ; présent à Cuba.
 Hypna clytemnestra mexicana Hall, 1917 ; présent au Mexique.
@@ -549,7 +563,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>funet</t>
         </is>
